--- a/ProjectMaker/.templates/Project_vii_TEMPLATE/Project_assessment_vii.xlsx
+++ b/ProjectMaker/.templates/Project_vii_TEMPLATE/Project_assessment_vii.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="costs (SI metric)" sheetId="6" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>rootwad</t>
   </si>
   <si>
-    <t>Engineered log jam: complete</t>
-  </si>
-  <si>
     <t>Cramer (2012)
 Knutson (2015)</t>
   </si>
@@ -574,11 +571,14 @@
     <t>Terrain stabilization</t>
   </si>
   <si>
-    <t>Streamwood
+    <t>Anchoring (logs for plant stability)</t>
+  </si>
+  <si>
+    <t>Engineered log jam, log-wise
 (for plant and terrain stabilization)</t>
   </si>
   <si>
-    <t>Anchoring (logs for plant stability)</t>
+    <t>Streamwood (non-anchored)</t>
   </si>
 </sst>
 </file>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2010,7 +2010,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="186" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" s="186"/>
       <c r="D1" s="186"/>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="187" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I2" s="188" t="str">
         <f>IF(NOT(OR(ISBLANK(G2), ISBLANK(G3))),G2/G3,"")</f>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J2" s="81"/>
       <c r="K2" s="189" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2049,11 +2049,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="191" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="172"/>
       <c r="G3" s="99"/>
@@ -2119,7 +2119,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="127">
         <f>from_geodata!C8</f>
@@ -2143,7 +2143,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>16</v>
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,16 +2207,16 @@
     </row>
     <row r="12" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="183" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="132">
         <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="127">
         <f>(from_geodata!C13)/log_length</f>
@@ -2246,7 +2246,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="126">
-        <f>(from_geodata!C12  + from_geodata!C13+ from_geodata!F12)/log_length^2</f>
+        <f>( from_geodata!C13)/square_yd2acre/ft2yd^2/log_length^2</f>
         <v>0</v>
       </c>
       <c r="G13" s="152">
@@ -2279,44 +2279,47 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="167"/>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="D15" s="135">
-        <f>AVERAGE(5000,20000, 30000, 100000)</f>
-        <v>38750</v>
+        <f>AVERAGE(600,1000, 300, 1200)</f>
+        <v>775</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="126">
+        <f>(from_geodata!C12 + from_geodata!F12)/square_yd2acre/ft2yd^2/log_length^2</f>
+        <v>0</v>
+      </c>
       <c r="G15" s="152">
         <f>F15*D15</f>
         <v>0</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="167"/>
       <c r="C16" s="64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="136">
         <v>150</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="126">
-        <f>(from_geodata!C16 + from_geodata!F15)</f>
+        <f>(from_geodata!C16 + from_geodata!C15)/ square_yd2acre</f>
         <v>0</v>
       </c>
       <c r="G16" s="156">
@@ -2325,12 +2328,12 @@
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="181" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="167"/>
       <c r="D17" s="167"/>
@@ -2355,10 +2358,10 @@
     </row>
     <row r="19" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D19" s="133">
         <f>AVERAGE(120, 300)</f>
@@ -2374,20 +2377,20 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="169"/>
       <c r="C20" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="137">
         <f>20*1.65</f>
         <v>33</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="157">
@@ -2396,19 +2399,19 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="167"/>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="133">
         <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="152">
@@ -2416,22 +2419,22 @@
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="167"/>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="133">
         <v>18</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="152">
@@ -2439,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="167"/>
       <c r="C23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="133">
         <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="126">
         <f>from_geodata!C5</f>
@@ -2465,22 +2468,22 @@
         <v>0</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="167"/>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="133">
         <v>10</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="126">
         <f>from_geodata!C7</f>
@@ -2491,22 +2494,22 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="169"/>
       <c r="C25" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="138">
         <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="128">
         <f>from_geodata!C4</f>
@@ -2518,19 +2521,19 @@
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="169"/>
       <c r="C26" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="139">
         <v>10</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="128">
         <f>from_geodata!C6</f>
@@ -2542,12 +2545,12 @@
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="169"/>
       <c r="D27" s="170"/>
@@ -2572,16 +2575,16 @@
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D29" s="137">
         <v>75</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="157">
@@ -2589,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>20</v>
@@ -2598,13 +2601,13 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="169"/>
       <c r="C30" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="137">
         <v>35</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="157">
@@ -2612,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>20</v>
@@ -2621,14 +2624,14 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="169"/>
       <c r="C31" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="137">
         <f>(2+10)/2</f>
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="157">
@@ -2636,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>20</v>
@@ -2645,14 +2648,14 @@
     <row r="32" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="167"/>
       <c r="C32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="133">
         <f>(10+20)/2</f>
         <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="126">
         <f>(from_geodata!C14 + from_geodata!F13)</f>
@@ -2663,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>20</v>
@@ -2672,17 +2675,17 @@
     <row r="33" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="167"/>
       <c r="C33" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="136">
         <f>(120+160)/2</f>
         <v>140</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="126">
-        <f>(from_geodata!C15 + from_geodata!F14)</f>
+        <f>(from_geodata!F15 + from_geodata!F14)</f>
         <v>0</v>
       </c>
       <c r="G33" s="156">
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>20</v>
@@ -2698,7 +2701,7 @@
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="169"/>
       <c r="D34" s="170"/>
@@ -2723,16 +2726,16 @@
     </row>
     <row r="36" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="183" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D36" s="133">
         <v>0.93</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="52"/>
       <c r="G36" s="152">
@@ -2741,20 +2744,20 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="167"/>
       <c r="C37" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="136">
         <f>AVERAGE(1000, 2000)</f>
         <v>1500</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" s="66"/>
       <c r="G37" s="156">
@@ -2763,12 +2766,12 @@
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="181" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="167"/>
       <c r="D38" s="167"/>
@@ -2793,16 +2796,16 @@
     </row>
     <row r="40" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D40" s="133">
         <v>200</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" s="52"/>
       <c r="G40" s="152">
@@ -2817,13 +2820,13 @@
     <row r="41" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="167"/>
       <c r="C41" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="133">
         <v>1500</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41" s="152">
@@ -2838,13 +2841,13 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="169"/>
       <c r="C42" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="137">
         <v>100</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="157">
@@ -2852,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>13</v>
@@ -2861,13 +2864,13 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="169"/>
       <c r="C43" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="137">
         <v>140</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="157">
@@ -2882,13 +2885,13 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="169"/>
       <c r="C44" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="137">
         <v>275</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F44" s="53"/>
       <c r="G44" s="157">
@@ -2903,13 +2906,13 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="169"/>
       <c r="C45" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="137">
         <v>850</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="53"/>
       <c r="G45" s="157">
@@ -2924,13 +2927,13 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="169"/>
       <c r="C46" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="137">
         <v>1250</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="157">
@@ -2945,14 +2948,14 @@
     <row r="47" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="167"/>
       <c r="C47" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="136">
         <f>AVERAGE(3.29, 4.21, 5.65, 2.57, 2.77)*0.91^2</f>
         <v>3.0623138000000005</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" s="66"/>
       <c r="G47" s="156">
@@ -2961,12 +2964,12 @@
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="181" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="167"/>
       <c r="D48" s="167"/>
@@ -2991,7 +2994,7 @@
     </row>
     <row r="50" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="180" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="167"/>
       <c r="D50" s="167"/>
@@ -3006,7 +3009,7 @@
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="173" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="169"/>
       <c r="D52" s="170"/>
@@ -3028,7 +3031,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="177" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="169"/>
       <c r="D54" s="31"/>
@@ -3040,14 +3043,14 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="178" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="169"/>
       <c r="D55" s="34">
         <v>0.1</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F55" s="143">
         <v>1</v>
@@ -3062,14 +3065,14 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="178" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="169"/>
       <c r="D56" s="35">
         <v>0.1</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" s="143">
         <v>1</v>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="177" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="169"/>
       <c r="D57" s="36"/>
@@ -3096,14 +3099,14 @@
     </row>
     <row r="58" spans="2:9" s="145" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="179" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="167"/>
       <c r="D58" s="131">
         <v>0.16500000000000001</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F58" s="60">
         <v>1</v>
@@ -3114,19 +3117,19 @@
       </c>
       <c r="H58" s="37"/>
       <c r="I58" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="166" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="167"/>
       <c r="D59" s="58">
         <v>0.35</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F59" s="60">
         <v>1</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="168" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="169"/>
       <c r="D61" s="170"/>
@@ -3216,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3238,7 +3241,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="186"/>
       <c r="D1" s="186"/>
@@ -3261,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="187" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="188" t="str">
         <f>IF(NOT(OR(ISBLANK(G2), ISBLANK(G3))),G2/G3,"")</f>
@@ -3269,7 +3272,7 @@
       </c>
       <c r="J2" s="81"/>
       <c r="K2" s="189" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3277,11 +3280,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="191" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="172"/>
       <c r="G3" s="99"/>
@@ -3384,7 +3387,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3435,10 +3438,10 @@
     </row>
     <row r="12" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="183" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="105">
         <v>80</v>
@@ -3474,7 +3477,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="126">
-        <f>(from_geodata!C12  + from_geodata!C13+ from_geodata!F12)/square_yd2acre/ft2yd^2/log_length^2</f>
+        <f>( from_geodata!C13)/square_yd2acre/ft2yd^2/log_length^2</f>
         <v>0</v>
       </c>
       <c r="G13" s="108">
@@ -3507,44 +3510,47 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="167"/>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="D15" s="113">
-        <f>AVERAGE(5000,20000, 30000, 100000)</f>
-        <v>38750</v>
+        <f>AVERAGE(600,1000, 300, 1200)</f>
+        <v>775</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="52"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="126">
+        <f>(from_geodata!C12 + from_geodata!F12)/square_yd2acre/ft2yd^2/log_length^2</f>
+        <v>0</v>
+      </c>
       <c r="G15" s="108">
         <f>F15*D15</f>
         <v>0</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="167"/>
       <c r="C16" s="64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="114">
         <v>150</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="126">
-        <f>(from_geodata!C16 + from_geodata!F15)/ square_yd2acre</f>
+        <f>(from_geodata!C16 + from_geodata!C15)/ square_yd2acre</f>
         <v>0</v>
       </c>
       <c r="G16" s="115">
@@ -3553,12 +3559,12 @@
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="181" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="167"/>
       <c r="D17" s="167"/>
@@ -3583,10 +3589,10 @@
     </row>
     <row r="19" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D19" s="107">
         <f>AVERAGE(120, 300)</f>
@@ -3602,20 +3608,20 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="169"/>
       <c r="C20" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="116">
         <f>20*1.65</f>
         <v>33</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="117">
@@ -3624,13 +3630,13 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="167"/>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="107">
         <f>AVERAGE(73059, 71836)</f>
@@ -3645,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="167"/>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="107">
         <f>AVERAGE(73059, 71836)</f>
@@ -3669,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="167"/>
       <c r="C23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="107">
         <v>40598</v>
@@ -3695,16 +3701,16 @@
         <v>0</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="167"/>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="107">
         <v>40598</v>
@@ -3721,16 +3727,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="169"/>
       <c r="C25" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="118">
         <f>AVERAGE(35000,45000)</f>
@@ -3749,13 +3755,13 @@
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="169"/>
       <c r="C26" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="119">
         <f>AVERAGE(35000,45000)</f>
@@ -3774,12 +3780,12 @@
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="169"/>
       <c r="D27" s="170"/>
@@ -3804,17 +3810,17 @@
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D29" s="116">
         <f>(60+100)/2</f>
         <v>80</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="117">
@@ -3822,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>20</v>
@@ -3831,7 +3837,7 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="169"/>
       <c r="C30" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="116">
         <f>(25+50)/2</f>
@@ -3846,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>20</v>
@@ -3855,14 +3861,14 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="169"/>
       <c r="C31" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="116">
         <f>(3+12)/2</f>
         <v>7.5</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="117">
@@ -3870,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>20</v>
@@ -3879,7 +3885,7 @@
     <row r="32" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="167"/>
       <c r="C32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="107">
         <f>(10+20)/2</f>
@@ -3897,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>20</v>
@@ -3906,17 +3912,17 @@
     <row r="33" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="167"/>
       <c r="C33" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="114">
         <f>(140+175)/2</f>
         <v>157.5</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="126">
-        <f>(from_geodata!C15 + from_geodata!F14)*square_yd2acre</f>
+        <f>(from_geodata!F15 + from_geodata!F14)</f>
         <v>0</v>
       </c>
       <c r="G33" s="115">
@@ -3924,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>20</v>
@@ -3932,7 +3938,7 @@
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="169"/>
       <c r="D34" s="170"/>
@@ -3957,10 +3963,10 @@
     </row>
     <row r="36" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="183" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D36" s="107">
         <f>AVERAGE(2500, 5000)</f>
@@ -3976,13 +3982,13 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="167"/>
       <c r="C37" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="114">
         <f>AVERAGE(1000, 2000)</f>
@@ -3998,12 +4004,12 @@
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="181" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="167"/>
       <c r="D38" s="167"/>
@@ -4028,10 +4034,10 @@
     </row>
     <row r="40" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D40" s="107">
         <v>250</v>
@@ -4052,14 +4058,14 @@
     <row r="41" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="167"/>
       <c r="C41" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="107">
         <f>1700*0.9071847</f>
         <v>1542.21399</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41" s="108">
@@ -4074,7 +4080,7 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="169"/>
       <c r="C42" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="116">
         <v>100</v>
@@ -4095,7 +4101,7 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="169"/>
       <c r="C43" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="116">
         <v>150</v>
@@ -4116,7 +4122,7 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="169"/>
       <c r="C44" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="116">
         <v>300</v>
@@ -4137,13 +4143,13 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="169"/>
       <c r="C45" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="116">
         <v>1000</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="53"/>
       <c r="G45" s="117">
@@ -4158,13 +4164,13 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="169"/>
       <c r="C46" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="116">
         <v>1500</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="117">
@@ -4179,14 +4185,14 @@
     <row r="47" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="167"/>
       <c r="C47" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="114">
         <f>AVERAGE(3.29, 4.21, 5.65, 2.57, 2.77)</f>
         <v>3.6980000000000004</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" s="66"/>
       <c r="G47" s="115">
@@ -4195,12 +4201,12 @@
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="181" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="167"/>
       <c r="D48" s="167"/>
@@ -4225,7 +4231,7 @@
     </row>
     <row r="50" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="180" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="167"/>
       <c r="D50" s="167"/>
@@ -4240,7 +4246,7 @@
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="173" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="169"/>
       <c r="D52" s="170"/>
@@ -4262,7 +4268,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="177" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="169"/>
       <c r="D54" s="31"/>
@@ -4274,14 +4280,14 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="178" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="169"/>
       <c r="D55" s="34">
         <v>0.1</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F55" s="85">
         <v>1</v>
@@ -4296,14 +4302,14 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="178" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="169"/>
       <c r="D56" s="35">
         <v>0.1</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" s="85">
         <v>1</v>
@@ -4318,7 +4324,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="177" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="169"/>
       <c r="D57" s="36"/>
@@ -4330,14 +4336,14 @@
     </row>
     <row r="58" spans="2:9" s="90" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="179" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="167"/>
       <c r="D58" s="131">
         <v>0.16500000000000001</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F58" s="60">
         <v>1</v>
@@ -4348,19 +4354,19 @@
       </c>
       <c r="H58" s="37"/>
       <c r="I58" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="2:9" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="166" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="167"/>
       <c r="D59" s="58">
         <v>0.35</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F59" s="60">
         <v>1</v>
@@ -4374,7 +4380,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="168" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="169"/>
       <c r="D61" s="170"/>
@@ -4448,7 +4454,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4465,37 +4471,37 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="94" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="94" t="s">
-        <v>88</v>
-      </c>
       <c r="E11" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="94" t="s">
         <v>87</v>
-      </c>
-      <c r="F11" s="94" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4525,10 +4531,10 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="192" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="193"/>
       <c r="E2" s="193"/>
@@ -4539,7 +4545,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="194" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="195"/>
       <c r="D3" s="195"/>
@@ -4561,20 +4567,20 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectMaker/.templates/Project_vii_TEMPLATE/Project_assessment_vii.xlsx
+++ b/ProjectMaker/.templates/Project_vii_TEMPLATE/Project_assessment_vii.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="costs (SI metric)" sheetId="6" r:id="rId1"/>
@@ -1559,39 +1559,75 @@
     <xf numFmtId="169" fontId="2" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1600,42 +1636,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2009,16 +2009,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="168" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
     </row>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="75"/>
@@ -2032,15 +2032,15 @@
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="H2" s="187" t="s">
+      <c r="H2" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="188" t="str">
+      <c r="I2" s="171" t="str">
         <f>IF(NOT(OR(ISBLANK(G2), ISBLANK(G3))),G2/G3,"")</f>
         <v/>
       </c>
       <c r="J2" s="81"/>
-      <c r="K2" s="189" t="s">
+      <c r="K2" s="173" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2052,15 +2052,15 @@
         <v>93</v>
       </c>
       <c r="D3" s="80"/>
-      <c r="E3" s="191" t="s">
+      <c r="E3" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="172"/>
+      <c r="F3" s="176"/>
       <c r="G3" s="99"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="176"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="81"/>
-      <c r="K3" s="190"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82"/>
@@ -2109,7 +2109,7 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="185" t="s">
+      <c r="B7" s="166" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2135,7 +2135,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" s="140" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="182"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2160,7 +2160,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="182"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="61" t="s">
         <v>18</v>
       </c>
@@ -2181,13 +2181,13 @@
       </c>
     </row>
     <row r="10" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
       <c r="G10" s="154">
         <f>SUM(G7:G9)</f>
         <v>0</v>
@@ -2206,7 +2206,7 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="180" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="167"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="5" t="s">
         <v>119</v>
       </c>
@@ -2261,7 +2261,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="167"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2283,7 +2283,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="167"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="5" t="s">
         <v>120</v>
       </c>
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="167"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="64" t="s">
         <v>30</v>
       </c>
@@ -2332,13 +2332,13 @@
       </c>
     </row>
     <row r="17" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
       <c r="G17" s="154">
         <f>SUM(G12:G16)</f>
         <v>0</v>
@@ -2357,7 +2357,7 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="183" t="s">
+      <c r="B19" s="180" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2381,7 +2381,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="169"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
@@ -2403,7 +2403,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="167"/>
+      <c r="B21" s="178"/>
       <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
@@ -2426,7 +2426,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="167"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
@@ -2449,7 +2449,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="167"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="5" t="s">
         <v>42</v>
       </c>
@@ -2475,7 +2475,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="167"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -2501,7 +2501,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="169"/>
+      <c r="B25" s="181"/>
       <c r="C25" s="22" t="s">
         <v>45</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="169"/>
+      <c r="B26" s="181"/>
       <c r="C26" s="67" t="s">
         <v>47</v>
       </c>
@@ -2549,13 +2549,13 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="172"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="176"/>
       <c r="G27" s="154">
         <f>SUM(G19:G26)</f>
         <v>0</v>
@@ -2599,7 +2599,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="169"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="9" t="s">
         <v>52</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="169"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="9" t="s">
         <v>54</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="167"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="5" t="s">
         <v>56</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="167"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="64" t="s">
         <v>58</v>
       </c>
@@ -2700,13 +2700,13 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="172"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="176"/>
       <c r="G34" s="154">
         <f>SUM(G29:G33)</f>
         <v>0</v>
@@ -2725,7 +2725,7 @@
       <c r="I35" s="27"/>
     </row>
     <row r="36" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="180" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="167"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="64" t="s">
         <v>64</v>
       </c>
@@ -2770,13 +2770,13 @@
       </c>
     </row>
     <row r="38" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
       <c r="G38" s="154">
         <f>SUM(G36:G37)</f>
         <v>0</v>
@@ -2795,7 +2795,7 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="183" t="s">
+      <c r="B40" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="167"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="5" t="s">
         <v>68</v>
       </c>
@@ -2839,7 +2839,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="169"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="9" t="s">
         <v>70</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="169"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="9" t="s">
         <v>72</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="169"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="9" t="s">
         <v>73</v>
       </c>
@@ -2904,7 +2904,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="169"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="9" t="s">
         <v>74</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="169"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="9" t="s">
         <v>75</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="167"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="64" t="s">
         <v>94</v>
       </c>
@@ -2968,13 +2968,13 @@
       </c>
     </row>
     <row r="48" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="181" t="s">
+      <c r="B48" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
       <c r="G48" s="154">
         <f>SUM(G40:G47)</f>
         <v>0</v>
@@ -2993,13 +2993,13 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="180" t="s">
+      <c r="B50" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="178"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="178"/>
       <c r="G50" s="160">
         <f>SUM(G48,G38,G34,G27,G17,G10)</f>
         <v>0</v>
@@ -3008,16 +3008,16 @@
       <c r="I50" s="38"/>
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="173" t="s">
+      <c r="B52" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="172"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="175"/>
-      <c r="I52" s="176"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="172"/>
     </row>
     <row r="53" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="32"/>
@@ -3030,10 +3030,10 @@
       <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="177" t="s">
+      <c r="B54" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="169"/>
+      <c r="C54" s="181"/>
       <c r="D54" s="31"/>
       <c r="E54" s="28"/>
       <c r="F54" s="55"/>
@@ -3042,10 +3042,10 @@
       <c r="I54" s="30"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="178" t="s">
+      <c r="B55" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="169"/>
+      <c r="C55" s="181"/>
       <c r="D55" s="34">
         <v>0.1</v>
       </c>
@@ -3064,10 +3064,10 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="178" t="s">
+      <c r="B56" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="169"/>
+      <c r="C56" s="181"/>
       <c r="D56" s="35">
         <v>0.1</v>
       </c>
@@ -3086,10 +3086,10 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="177" t="s">
+      <c r="B57" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="169"/>
+      <c r="C57" s="181"/>
       <c r="D57" s="36"/>
       <c r="E57" s="28"/>
       <c r="F57" s="55"/>
@@ -3098,10 +3098,10 @@
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="2:9" s="145" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="179" t="s">
+      <c r="B58" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="167"/>
+      <c r="C58" s="178"/>
       <c r="D58" s="131">
         <v>0.16500000000000001</v>
       </c>
@@ -3121,10 +3121,10 @@
       </c>
     </row>
     <row r="59" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="166" t="s">
+      <c r="B59" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="167"/>
+      <c r="C59" s="178"/>
       <c r="D59" s="58">
         <v>0.35</v>
       </c>
@@ -3145,13 +3145,13 @@
       <c r="G60" s="161"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="168" t="s">
+      <c r="B61" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="169"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="172"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="183"/>
+      <c r="F61" s="176"/>
       <c r="G61" s="164">
         <f>G58+G56+G55+G50+G59</f>
         <v>0</v>
@@ -3161,12 +3161,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B12:B16"/>
@@ -3179,14 +3181,12 @@
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:F11 B17:F18 B27:F28 B34:F35 B38:F39 B48:F49">
     <cfRule type="expression" dxfId="9" priority="5">
@@ -3219,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3240,16 +3240,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
     </row>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="75"/>
@@ -3263,15 +3263,15 @@
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="H2" s="187" t="s">
+      <c r="H2" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="188" t="str">
+      <c r="I2" s="171" t="str">
         <f>IF(NOT(OR(ISBLANK(G2), ISBLANK(G3))),G2/G3,"")</f>
         <v/>
       </c>
       <c r="J2" s="81"/>
-      <c r="K2" s="189" t="s">
+      <c r="K2" s="173" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3283,15 +3283,15 @@
         <v>93</v>
       </c>
       <c r="D3" s="80"/>
-      <c r="E3" s="191" t="s">
+      <c r="E3" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="172"/>
+      <c r="F3" s="176"/>
       <c r="G3" s="99"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="176"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="81"/>
-      <c r="K3" s="190"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82"/>
@@ -3340,7 +3340,7 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="185" t="s">
+      <c r="B7" s="166" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3366,7 +3366,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" s="91" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="182"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -3391,7 +3391,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="182"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="61" t="s">
         <v>18</v>
       </c>
@@ -3412,13 +3412,13 @@
       </c>
     </row>
     <row r="10" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
       <c r="G10" s="111">
         <f>SUM(G7:G9)</f>
         <v>0</v>
@@ -3437,7 +3437,7 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="180" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3465,7 +3465,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="167"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="5" t="s">
         <v>119</v>
       </c>
@@ -3492,7 +3492,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="167"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="167"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="5" t="s">
         <v>120</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="167"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="64" t="s">
         <v>30</v>
       </c>
@@ -3563,13 +3563,13 @@
       </c>
     </row>
     <row r="17" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
       <c r="G17" s="111">
         <f>SUM(G12:G16)</f>
         <v>0</v>
@@ -3588,7 +3588,7 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="183" t="s">
+      <c r="B19" s="180" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -3612,7 +3612,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="169"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="167"/>
+      <c r="B21" s="178"/>
       <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="167"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="167"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="167"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="169"/>
+      <c r="B25" s="181"/>
       <c r="C25" s="22" t="s">
         <v>45</v>
       </c>
@@ -3759,7 +3759,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="169"/>
+      <c r="B26" s="181"/>
       <c r="C26" s="67" t="s">
         <v>47</v>
       </c>
@@ -3784,13 +3784,13 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="172"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="176"/>
       <c r="G27" s="111">
         <f>SUM(G19:G26)</f>
         <v>0</v>
@@ -3835,7 +3835,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="169"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="9" t="s">
         <v>52</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="169"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="9" t="s">
         <v>54</v>
       </c>
@@ -3883,7 +3883,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="167"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="5" t="s">
         <v>56</v>
       </c>
@@ -3910,7 +3910,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="167"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="64" t="s">
         <v>58</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>31</v>
       </c>
       <c r="F33" s="126">
-        <f>(from_geodata!F15 + from_geodata!F14)</f>
+        <f>(from_geodata!F15 + from_geodata!F14)/ square_yd2acre</f>
         <v>0</v>
       </c>
       <c r="G33" s="115">
@@ -3937,13 +3937,13 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="181" t="s">
+      <c r="B34" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="172"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="176"/>
       <c r="G34" s="111">
         <f>SUM(G29:G33)</f>
         <v>0</v>
@@ -3962,7 +3962,7 @@
       <c r="I35" s="27"/>
     </row>
     <row r="36" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="180" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -3986,7 +3986,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="167"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="64" t="s">
         <v>64</v>
       </c>
@@ -4008,13 +4008,13 @@
       </c>
     </row>
     <row r="38" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
       <c r="G38" s="111">
         <f>SUM(G36:G37)</f>
         <v>0</v>
@@ -4033,7 +4033,7 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="183" t="s">
+      <c r="B40" s="180" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -4056,7 +4056,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="167"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="5" t="s">
         <v>68</v>
       </c>
@@ -4078,7 +4078,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="169"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="9" t="s">
         <v>70</v>
       </c>
@@ -4099,7 +4099,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="169"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="9" t="s">
         <v>72</v>
       </c>
@@ -4120,7 +4120,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="169"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="9" t="s">
         <v>73</v>
       </c>
@@ -4141,7 +4141,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="169"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="9" t="s">
         <v>74</v>
       </c>
@@ -4162,7 +4162,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="169"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="9" t="s">
         <v>75</v>
       </c>
@@ -4183,7 +4183,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="167"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="64" t="s">
         <v>94</v>
       </c>
@@ -4205,13 +4205,13 @@
       </c>
     </row>
     <row r="48" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="181" t="s">
+      <c r="B48" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
       <c r="G48" s="111">
         <f>SUM(G40:G47)</f>
         <v>0</v>
@@ -4230,13 +4230,13 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="180" t="s">
+      <c r="B50" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="178"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="178"/>
       <c r="G50" s="122">
         <f>SUM(G48,G38,G34,G27,G17,G10)</f>
         <v>0</v>
@@ -4245,16 +4245,16 @@
       <c r="I50" s="38"/>
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="173" t="s">
+      <c r="B52" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="172"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="175"/>
-      <c r="I52" s="176"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="172"/>
     </row>
     <row r="53" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="32"/>
@@ -4267,10 +4267,10 @@
       <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="177" t="s">
+      <c r="B54" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="169"/>
+      <c r="C54" s="181"/>
       <c r="D54" s="31"/>
       <c r="E54" s="28"/>
       <c r="F54" s="55"/>
@@ -4279,10 +4279,10 @@
       <c r="I54" s="30"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="178" t="s">
+      <c r="B55" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="169"/>
+      <c r="C55" s="181"/>
       <c r="D55" s="34">
         <v>0.1</v>
       </c>
@@ -4301,10 +4301,10 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="178" t="s">
+      <c r="B56" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="169"/>
+      <c r="C56" s="181"/>
       <c r="D56" s="35">
         <v>0.1</v>
       </c>
@@ -4323,10 +4323,10 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="177" t="s">
+      <c r="B57" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="169"/>
+      <c r="C57" s="181"/>
       <c r="D57" s="36"/>
       <c r="E57" s="28"/>
       <c r="F57" s="55"/>
@@ -4335,10 +4335,10 @@
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="2:9" s="90" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="179" t="s">
+      <c r="B58" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="167"/>
+      <c r="C58" s="178"/>
       <c r="D58" s="131">
         <v>0.16500000000000001</v>
       </c>
@@ -4358,10 +4358,10 @@
       </c>
     </row>
     <row r="59" spans="2:9" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="166" t="s">
+      <c r="B59" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="167"/>
+      <c r="C59" s="178"/>
       <c r="D59" s="58">
         <v>0.35</v>
       </c>
@@ -4379,13 +4379,13 @@
       <c r="I59" s="38"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="168" t="s">
+      <c r="B61" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="169"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="172"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="183"/>
+      <c r="F61" s="176"/>
       <c r="G61" s="125">
         <f>G58+G56+G55+G50+G59</f>
         <v>0</v>
@@ -4395,6 +4395,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="B48:F48"/>
@@ -4411,16 +4421,6 @@
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:F11 B17:F18 B27:F28 B34:F35 B38:F39 B48:F49">
     <cfRule type="expression" dxfId="4" priority="5">

--- a/ProjectMaker/.templates/Project_vii_TEMPLATE/Project_assessment_vii.xlsx
+++ b/ProjectMaker/.templates/Project_vii_TEMPLATE/Project_assessment_vii.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RiverArchitect\ProjectMaker\.templates\Project_vii_TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RA_program\ProjectMaker\.templates\Project_vii_TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -326,9 +326,6 @@
     <t>SUM (Vegetation plantings)</t>
   </si>
   <si>
-    <t>Bioengineering (other)</t>
-  </si>
-  <si>
     <t>Fascine</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>Bioengineering (stabilization)</t>
   </si>
   <si>
     <t>SUM (Plant-stabilizing bioengineering)</t>
@@ -579,6 +573,12 @@
   </si>
   <si>
     <t>Streamwood (non-anchored)</t>
+  </si>
+  <si>
+    <t>Nature-based engineering (other)</t>
+  </si>
+  <si>
+    <t>Nature-based engineering (stabilization)</t>
   </si>
 </sst>
 </file>
@@ -1559,27 +1559,75 @@
     <xf numFmtId="169" fontId="2" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1588,54 +1636,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:F34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2009,16 +2009,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="168" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
+      <c r="B1" s="186" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
     </row>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="75"/>
@@ -2032,16 +2032,16 @@
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="H2" s="169" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="171" t="str">
+      <c r="H2" s="187" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="188" t="str">
         <f>IF(NOT(OR(ISBLANK(G2), ISBLANK(G3))),G2/G3,"")</f>
         <v/>
       </c>
       <c r="J2" s="81"/>
-      <c r="K2" s="173" t="s">
-        <v>92</v>
+      <c r="K2" s="189" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2049,18 +2049,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="80"/>
-      <c r="E3" s="175" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="176"/>
+      <c r="E3" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="172"/>
       <c r="G3" s="99"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="172"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="81"/>
-      <c r="K3" s="174"/>
+      <c r="K3" s="190"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82"/>
@@ -2109,7 +2109,7 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="185" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2119,7 +2119,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="127">
         <f>from_geodata!C8</f>
@@ -2135,7 +2135,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" s="140" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="167"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>16</v>
@@ -2156,11 +2156,11 @@
         <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="167"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="61" t="s">
         <v>18</v>
       </c>
@@ -2181,13 +2181,13 @@
       </c>
     </row>
     <row r="10" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
       <c r="G10" s="154">
         <f>SUM(G7:G9)</f>
         <v>0</v>
@@ -2206,17 +2206,17 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:11" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="180" t="s">
-        <v>104</v>
+      <c r="B12" s="183" t="s">
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="132">
         <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="127">
         <f>(from_geodata!C13)/log_length</f>
@@ -2234,9 +2234,9 @@
       </c>
     </row>
     <row r="13" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="178"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" s="135">
         <f>AVERAGE(600,1000, 300, 1200)</f>
@@ -2261,7 +2261,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="178"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2279,13 +2279,13 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="178"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="135">
         <f>AVERAGE(600,1000, 300, 1200)</f>
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="178"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="64" t="s">
         <v>30</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>150</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="126">
         <f>(from_geodata!C16 + from_geodata!C15)/ square_yd2acre</f>
@@ -2332,13 +2332,13 @@
       </c>
     </row>
     <row r="17" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
+      <c r="B17" s="181" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
       <c r="G17" s="154">
         <f>SUM(G12:G16)</f>
         <v>0</v>
@@ -2357,7 +2357,7 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="183" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2381,7 +2381,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="181"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
@@ -2399,11 +2399,11 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="178"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="152">
@@ -2426,7 +2426,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="178"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="152">
@@ -2449,7 +2449,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="178"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="5" t="s">
         <v>42</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="126">
         <f>from_geodata!C5</f>
@@ -2475,7 +2475,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="178"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="126">
         <f>from_geodata!C7</f>
@@ -2501,7 +2501,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="181"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="22" t="s">
         <v>45</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="128">
         <f>from_geodata!C4</f>
@@ -2525,7 +2525,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="181"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="67" t="s">
         <v>47</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="128">
         <f>from_geodata!C6</f>
@@ -2549,13 +2549,13 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="179" t="s">
+      <c r="B27" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="176"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="172"/>
       <c r="G27" s="154">
         <f>SUM(G19:G26)</f>
         <v>0</v>
@@ -2575,16 +2575,16 @@
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="184" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="D29" s="137">
         <v>75</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="157">
@@ -2592,22 +2592,22 @@
         <v>0</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="181"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="137">
         <v>35</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="157">
@@ -2615,23 +2615,23 @@
         <v>0</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="181"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="137">
         <f>(2+10)/2</f>
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="157">
@@ -2639,23 +2639,23 @@
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="178"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="133">
         <f>(10+20)/2</f>
         <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="126">
         <f>(from_geodata!C14 + from_geodata!F13)</f>
@@ -2666,23 +2666,23 @@
         <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="178"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="136">
         <f>(120+160)/2</f>
         <v>140</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F33" s="126">
         <f>(from_geodata!F15 + from_geodata!F14)</f>
@@ -2693,20 +2693,20 @@
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="179" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="176"/>
+      <c r="B34" s="181" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="169"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="172"/>
       <c r="G34" s="154">
         <f>SUM(G29:G33)</f>
         <v>0</v>
@@ -2725,17 +2725,17 @@
       <c r="I35" s="27"/>
     </row>
     <row r="36" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D36" s="133">
         <v>0.93</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="52"/>
       <c r="G36" s="152">
@@ -2744,20 +2744,20 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="167"/>
+      <c r="C37" s="64" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="178"/>
-      <c r="C37" s="64" t="s">
-        <v>64</v>
       </c>
       <c r="D37" s="136">
         <f>AVERAGE(1000, 2000)</f>
         <v>1500</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F37" s="66"/>
       <c r="G37" s="156">
@@ -2770,13 +2770,13 @@
       </c>
     </row>
     <row r="38" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="179" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="178"/>
-      <c r="D38" s="178"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
+      <c r="B38" s="181" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
       <c r="G38" s="154">
         <f>SUM(G36:G37)</f>
         <v>0</v>
@@ -2795,17 +2795,17 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="180" t="s">
+      <c r="B40" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D40" s="133">
         <v>200</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="52"/>
       <c r="G40" s="152">
@@ -2818,15 +2818,15 @@
       </c>
     </row>
     <row r="41" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="178"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="133">
         <v>1500</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41" s="152">
@@ -2839,15 +2839,15 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="181"/>
+      <c r="B42" s="169"/>
       <c r="C42" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="137">
         <v>100</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="157">
@@ -2855,22 +2855,22 @@
         <v>0</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="181"/>
+      <c r="B43" s="169"/>
       <c r="C43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="137">
         <v>140</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="157">
@@ -2883,15 +2883,15 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="181"/>
+      <c r="B44" s="169"/>
       <c r="C44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="137">
         <v>275</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" s="53"/>
       <c r="G44" s="157">
@@ -2904,15 +2904,15 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="181"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="137">
         <v>850</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45" s="53"/>
       <c r="G45" s="157">
@@ -2925,15 +2925,15 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="181"/>
+      <c r="B46" s="169"/>
       <c r="C46" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="137">
         <v>1250</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="157">
@@ -2946,16 +2946,16 @@
       </c>
     </row>
     <row r="47" spans="2:9" s="145" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="178"/>
+      <c r="B47" s="167"/>
       <c r="C47" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="136">
         <f>AVERAGE(3.29, 4.21, 5.65, 2.57, 2.77)*0.91^2</f>
         <v>3.0623138000000005</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F47" s="66"/>
       <c r="G47" s="156">
@@ -2964,17 +2964,17 @@
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="181" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="179" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
       <c r="G48" s="154">
         <f>SUM(G40:G47)</f>
         <v>0</v>
@@ -2993,13 +2993,13 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="177" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="178"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
+      <c r="B50" s="180" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
       <c r="G50" s="160">
         <f>SUM(G48,G38,G34,G27,G17,G10)</f>
         <v>0</v>
@@ -3008,16 +3008,16 @@
       <c r="I50" s="38"/>
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="181"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="172"/>
+      <c r="B52" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="169"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="172"/>
+      <c r="G52" s="174"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="176"/>
     </row>
     <row r="53" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="32"/>
@@ -3030,10 +3030,10 @@
       <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="189" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="181"/>
+      <c r="B54" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="169"/>
       <c r="D54" s="31"/>
       <c r="E54" s="28"/>
       <c r="F54" s="55"/>
@@ -3042,15 +3042,15 @@
       <c r="I54" s="30"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="190" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="181"/>
+      <c r="B55" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="169"/>
       <c r="D55" s="34">
         <v>0.1</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F55" s="143">
         <v>1</v>
@@ -3064,15 +3064,15 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="181"/>
+      <c r="B56" s="178" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="169"/>
       <c r="D56" s="35">
         <v>0.1</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F56" s="143">
         <v>1</v>
@@ -3086,10 +3086,10 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="189" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="181"/>
+      <c r="B57" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="169"/>
       <c r="D57" s="36"/>
       <c r="E57" s="28"/>
       <c r="F57" s="55"/>
@@ -3098,15 +3098,15 @@
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="2:9" s="145" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="191" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="178"/>
+      <c r="B58" s="179" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="167"/>
       <c r="D58" s="131">
         <v>0.16500000000000001</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="60">
         <v>1</v>
@@ -3117,19 +3117,19 @@
       </c>
       <c r="H58" s="37"/>
       <c r="I58" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="2:9" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="185" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="178"/>
+      <c r="B59" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="167"/>
       <c r="D59" s="58">
         <v>0.35</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F59" s="60">
         <v>1</v>
@@ -3145,13 +3145,13 @@
       <c r="G60" s="161"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="186" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="181"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="183"/>
-      <c r="F61" s="176"/>
+      <c r="B61" s="168" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="169"/>
+      <c r="D61" s="170"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="172"/>
       <c r="G61" s="164">
         <f>G58+G56+G55+G50+G59</f>
         <v>0</v>
@@ -3161,14 +3161,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B12:B16"/>
@@ -3181,12 +3179,14 @@
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:F11 B17:F18 B27:F28 B34:F35 B38:F39 B48:F49">
     <cfRule type="expression" dxfId="9" priority="5">
@@ -3219,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:F34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3240,16 +3240,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="168" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
+      <c r="B1" s="186" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
     </row>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="75"/>
@@ -3263,16 +3263,16 @@
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="H2" s="169" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="171" t="str">
+      <c r="H2" s="187" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="188" t="str">
         <f>IF(NOT(OR(ISBLANK(G2), ISBLANK(G3))),G2/G3,"")</f>
         <v/>
       </c>
       <c r="J2" s="81"/>
-      <c r="K2" s="173" t="s">
-        <v>92</v>
+      <c r="K2" s="189" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3280,18 +3280,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="80"/>
-      <c r="E3" s="175" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="176"/>
+      <c r="E3" s="191" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="172"/>
       <c r="G3" s="99"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="172"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="81"/>
-      <c r="K3" s="174"/>
+      <c r="K3" s="190"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82"/>
@@ -3340,7 +3340,7 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="185" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3366,7 +3366,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" s="91" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="167"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -3387,11 +3387,11 @@
         <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="167"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="61" t="s">
         <v>18</v>
       </c>
@@ -3412,13 +3412,13 @@
       </c>
     </row>
     <row r="10" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
       <c r="G10" s="111">
         <f>SUM(G7:G9)</f>
         <v>0</v>
@@ -3437,11 +3437,11 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="180" t="s">
-        <v>104</v>
+      <c r="B12" s="183" t="s">
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="105">
         <v>80</v>
@@ -3465,9 +3465,9 @@
       </c>
     </row>
     <row r="13" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="178"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" s="113">
         <f>AVERAGE(600,1000, 300, 1200)</f>
@@ -3492,7 +3492,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="178"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
@@ -3510,13 +3510,13 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="178"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="113">
         <f>AVERAGE(600,1000, 300, 1200)</f>
@@ -3539,7 +3539,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="178"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="64" t="s">
         <v>30</v>
       </c>
@@ -3563,13 +3563,13 @@
       </c>
     </row>
     <row r="17" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="179" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
+      <c r="B17" s="181" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
       <c r="G17" s="111">
         <f>SUM(G12:G16)</f>
         <v>0</v>
@@ -3588,7 +3588,7 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="183" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -3612,7 +3612,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="181"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
@@ -3630,11 +3630,11 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="178"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="178"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="178"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="5" t="s">
         <v>42</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="178"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -3734,7 +3734,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="181"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="22" t="s">
         <v>45</v>
       </c>
@@ -3759,7 +3759,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="181"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="67" t="s">
         <v>47</v>
       </c>
@@ -3784,13 +3784,13 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="179" t="s">
+      <c r="B27" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="176"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="172"/>
       <c r="G27" s="111">
         <f>SUM(G19:G26)</f>
         <v>0</v>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="184" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="D29" s="116">
         <f>(60+100)/2</f>
@@ -3828,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="181"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="116">
         <f>(25+50)/2</f>
@@ -3852,16 +3852,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="181"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="116">
         <f>(3+12)/2</f>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="178"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="107">
         <f>(10+20)/2</f>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="178"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="114">
         <f>(140+175)/2</f>
@@ -3930,20 +3930,20 @@
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="179" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="176"/>
+      <c r="B34" s="181" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="169"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="172"/>
       <c r="G34" s="111">
         <f>SUM(G29:G33)</f>
         <v>0</v>
@@ -3962,11 +3962,11 @@
       <c r="I35" s="27"/>
     </row>
     <row r="36" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D36" s="107">
         <f>AVERAGE(2500, 5000)</f>
@@ -3982,13 +3982,13 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="167"/>
+      <c r="C37" s="64" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="178"/>
-      <c r="C37" s="64" t="s">
-        <v>64</v>
       </c>
       <c r="D37" s="114">
         <f>AVERAGE(1000, 2000)</f>
@@ -4008,13 +4008,13 @@
       </c>
     </row>
     <row r="38" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="179" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="178"/>
-      <c r="D38" s="178"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
+      <c r="B38" s="181" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
       <c r="G38" s="111">
         <f>SUM(G36:G37)</f>
         <v>0</v>
@@ -4033,11 +4033,11 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="180" t="s">
+      <c r="B40" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D40" s="107">
         <v>250</v>
@@ -4056,16 +4056,16 @@
       </c>
     </row>
     <row r="41" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="178"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="107">
         <f>1700*0.9071847</f>
         <v>1542.21399</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41" s="108">
@@ -4078,9 +4078,9 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="181"/>
+      <c r="B42" s="169"/>
       <c r="C42" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="116">
         <v>100</v>
@@ -4099,9 +4099,9 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="181"/>
+      <c r="B43" s="169"/>
       <c r="C43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="116">
         <v>150</v>
@@ -4120,9 +4120,9 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="181"/>
+      <c r="B44" s="169"/>
       <c r="C44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="116">
         <v>300</v>
@@ -4141,9 +4141,9 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="181"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="116">
         <v>1000</v>
@@ -4162,9 +4162,9 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="181"/>
+      <c r="B46" s="169"/>
       <c r="C46" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="116">
         <v>1500</v>
@@ -4183,9 +4183,9 @@
       </c>
     </row>
     <row r="47" spans="2:9" s="90" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="178"/>
+      <c r="B47" s="167"/>
       <c r="C47" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="114">
         <f>AVERAGE(3.29, 4.21, 5.65, 2.57, 2.77)</f>
@@ -4201,17 +4201,17 @@
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="181" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="179" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
       <c r="G48" s="111">
         <f>SUM(G40:G47)</f>
         <v>0</v>
@@ -4230,13 +4230,13 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="177" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="178"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
+      <c r="B50" s="180" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
       <c r="G50" s="122">
         <f>SUM(G48,G38,G34,G27,G17,G10)</f>
         <v>0</v>
@@ -4245,16 +4245,16 @@
       <c r="I50" s="38"/>
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="181"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="172"/>
+      <c r="B52" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="169"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="172"/>
+      <c r="G52" s="174"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="176"/>
     </row>
     <row r="53" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="32"/>
@@ -4267,10 +4267,10 @@
       <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="189" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="181"/>
+      <c r="B54" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="169"/>
       <c r="D54" s="31"/>
       <c r="E54" s="28"/>
       <c r="F54" s="55"/>
@@ -4279,15 +4279,15 @@
       <c r="I54" s="30"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="190" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="181"/>
+      <c r="B55" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="169"/>
       <c r="D55" s="34">
         <v>0.1</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F55" s="85">
         <v>1</v>
@@ -4301,15 +4301,15 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="190" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="181"/>
+      <c r="B56" s="178" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="169"/>
       <c r="D56" s="35">
         <v>0.1</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F56" s="85">
         <v>1</v>
@@ -4323,10 +4323,10 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="189" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="181"/>
+      <c r="B57" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="169"/>
       <c r="D57" s="36"/>
       <c r="E57" s="28"/>
       <c r="F57" s="55"/>
@@ -4335,15 +4335,15 @@
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="2:9" s="90" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="191" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="178"/>
+      <c r="B58" s="179" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="167"/>
       <c r="D58" s="131">
         <v>0.16500000000000001</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="60">
         <v>1</v>
@@ -4354,19 +4354,19 @@
       </c>
       <c r="H58" s="37"/>
       <c r="I58" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="2:9" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="185" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="178"/>
+      <c r="B59" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="167"/>
       <c r="D59" s="58">
         <v>0.35</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F59" s="60">
         <v>1</v>
@@ -4379,13 +4379,13 @@
       <c r="I59" s="38"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="186" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="181"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="183"/>
-      <c r="F61" s="176"/>
+      <c r="B61" s="168" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="169"/>
+      <c r="D61" s="170"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="172"/>
       <c r="G61" s="125">
         <f>G58+G56+G55+G50+G59</f>
         <v>0</v>
@@ -4395,16 +4395,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="B48:F48"/>
@@ -4421,6 +4411,16 @@
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:F11 B17:F18 B27:F28 B34:F35 B38:F39 B48:F49">
     <cfRule type="expression" dxfId="4" priority="5">
@@ -4471,37 +4471,37 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="94" t="s">
         <v>86</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="94" t="s">
-        <v>87</v>
-      </c>
       <c r="E11" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="94" t="s">
         <v>86</v>
-      </c>
-      <c r="F11" s="94" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4531,10 +4531,10 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="192" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="193"/>
       <c r="E2" s="193"/>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="194" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="195"/>
       <c r="D3" s="195"/>
@@ -4567,20 +4567,20 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
